--- a/Day 2- Excel Dashboards and Data Visualization/2-Interactive Data Visualizations p1/2-1 Sparklines.xlsx
+++ b/Day 2- Excel Dashboards and Data Visualization/2-Interactive Data Visualizations p1/2-1 Sparklines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Courses\Elementsix\Day 2- Excel Dashboards and Data Visualization\2-Interactive Data Visualizations p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\element-six-day-2\Day 2- Excel Dashboards and Data Visualization\2-Interactive Data Visualizations p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC3BEC-066E-4169-A06F-F3C695A76EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56892E8-4F69-4FC4-B12C-05CDD41602FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2593" windowWidth="18000" windowHeight="9394" activeTab="1" xr2:uid="{69AC3DF7-15F0-4164-94B0-25A81FA51BDE}"/>
+    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{69AC3DF7-15F0-4164-94B0-25A81FA51BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tornado Data" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D33363B-2B55-469A-B18A-6033792C6D30}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
